--- a/Datasets/2nd Analysis Datasets/Results/SentiStrength/Negation_Dataset_SentiStrength.xlsx
+++ b/Datasets/2nd Analysis Datasets/Results/SentiStrength/Negation_Dataset_SentiStrength.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\github\bachelorthesis\Datasets\2nd Analysis Datasets\Results\SentiStrength\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangDaoVuNgoc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F720D5-215D-44B4-AD0E-9ED397D28CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669144E-1FCE-42AF-8EDF-567DB4337B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3135" windowWidth="24240" windowHeight="17640" xr2:uid="{D7BD89BD-6CEA-41BA-BCC4-0B731912A6D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D7BD89BD-6CEA-41BA-BCC4-0B731912A6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Negation_Dataset_results" localSheetId="0">Sheet1!$A$1:$D$143</definedName>
+    <definedName name="Negation_Dataset_results" localSheetId="0">Sheet1!$B$1:$E$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Positive</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>Polarity_Result</t>
+  </si>
+  <si>
+    <t>Polarity</t>
   </si>
 </sst>
 </file>
@@ -847,2590 +850,3019 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5305D3-CCF7-4CD1-91B8-0C41BB3BB444}">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>145</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-3</v>
       </c>
-      <c r="D2">
-        <f>B2+C2</f>
-        <v>-1</v>
-      </c>
       <c r="E2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <f>C2+D2</f>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3+C3</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <f t="shared" ref="E3:E66" si="0">C3+D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
       <c r="C10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>-4</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
       <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>-4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="F17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>-3</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="E19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
       <c r="C22">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
       <c r="C23">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
       <c r="C25">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
       <c r="C26">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
       <c r="C27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
       <c r="C28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
       <c r="C29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>-1</v>
-      </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
       <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>-3</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="E32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>-3</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="E33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
       <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>-3</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="E34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
       <c r="C35">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
       <c r="C36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>-2</v>
-      </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
       <c r="C38">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
       <c r="C39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>-1</v>
-      </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>-3</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
       <c r="E41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-1</v>
+      </c>
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
       <c r="C42">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="C43">
-        <v>-2</v>
-      </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
       <c r="C44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
       <c r="C45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-1</v>
+      </c>
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
       <c r="C46">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
       <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
         <v>-4</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
       <c r="C48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="C49">
-        <v>-1</v>
-      </c>
       <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-1</v>
+      </c>
+      <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
       <c r="C50">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-1</v>
+      </c>
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
       <c r="C51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-1</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
       <c r="C52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>3</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-4</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
       <c r="E53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
       <c r="C54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-1</v>
+      </c>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>4</v>
       </c>
-      <c r="C55">
-        <v>-2</v>
-      </c>
       <c r="D55">
+        <v>-2</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="C56">
-        <v>-1</v>
-      </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
       <c r="C57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-1</v>
+      </c>
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
       <c r="C58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-1</v>
+      </c>
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
       <c r="C59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-1</v>
+      </c>
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
       <c r="C60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-1</v>
+      </c>
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
       <c r="C61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-1</v>
+      </c>
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
       <c r="C62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-1</v>
+      </c>
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>3</v>
       </c>
-      <c r="C63">
-        <v>-1</v>
-      </c>
       <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="C64">
-        <v>-1</v>
-      </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
       <c r="C65">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E65">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>3</v>
       </c>
-      <c r="C66">
-        <v>-2</v>
-      </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-1</v>
+      </c>
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
       <c r="C67">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">B67+C67</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <f t="shared" ref="E67:E130" si="1">C67+D67</f>
+        <v>-1</v>
+      </c>
+      <c r="F67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>2</v>
       </c>
-      <c r="C68">
-        <v>-1</v>
-      </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-1</v>
+      </c>
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
       <c r="C69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-1</v>
+      </c>
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
       <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
         <v>-3</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
       <c r="E70">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-1</v>
+      </c>
+      <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
       <c r="C71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-1</v>
+      </c>
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
       <c r="C72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
       <c r="C73">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E73">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-1</v>
+      </c>
+      <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
       <c r="C74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>-1</v>
-      </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-1</v>
+      </c>
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
       <c r="C76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-1</v>
+      </c>
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
       <c r="C77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
       <c r="C78">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-1</v>
+      </c>
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
       <c r="C79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
       <c r="C80">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E80">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-1</v>
+      </c>
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>2</v>
       </c>
-      <c r="C81">
-        <v>-1</v>
-      </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>2</v>
       </c>
-      <c r="C82">
-        <v>-1</v>
-      </c>
       <c r="D82">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-1</v>
+      </c>
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
       <c r="C83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-1</v>
+      </c>
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
       <c r="C84">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E84">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>2</v>
       </c>
-      <c r="C85">
-        <v>-1</v>
-      </c>
       <c r="D85">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-1</v>
+      </c>
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
       <c r="C86">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E86">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-1</v>
+      </c>
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
       <c r="C87">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
       <c r="C88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-1</v>
+      </c>
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
       <c r="C89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
       <c r="C90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-1</v>
+      </c>
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
       <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
         <v>-3</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
       <c r="E91">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-1</v>
+      </c>
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
       <c r="C92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-1</v>
+      </c>
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
       <c r="C93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-1</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
       <c r="C94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-1</v>
+      </c>
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>3</v>
       </c>
-      <c r="C95">
-        <v>-2</v>
-      </c>
       <c r="D95">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-1</v>
+      </c>
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
       <c r="C96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-1</v>
+      </c>
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
       <c r="C97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-1</v>
+      </c>
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
       <c r="C98">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E98">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-1</v>
+      </c>
+      <c r="B99" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
       <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
         <v>-3</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
       <c r="E99">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F99">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-1</v>
+      </c>
+      <c r="B100" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
       <c r="C100">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E100">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-1</v>
+      </c>
+      <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
       <c r="C101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
       <c r="C102">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E102">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-1</v>
+      </c>
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
       <c r="C103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-1</v>
+      </c>
+      <c r="B104" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
       <c r="C104">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-1</v>
+      </c>
+      <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
       <c r="C105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
       <c r="C106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
       <c r="C107">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E107">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>2</v>
       </c>
-      <c r="C108">
-        <v>-1</v>
-      </c>
       <c r="D108">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>2</v>
       </c>
-      <c r="C109">
-        <v>-2</v>
-      </c>
       <c r="D109">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-1</v>
+      </c>
+      <c r="B110" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
       <c r="C110">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-1</v>
+      </c>
+      <c r="B111" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
       <c r="C111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-1</v>
+      </c>
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
       <c r="C112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-1</v>
+      </c>
+      <c r="B113" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
       <c r="C113">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F113">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-1</v>
+      </c>
+      <c r="B114" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
       <c r="C114">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E114">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-1</v>
+      </c>
+      <c r="B115" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
       <c r="C115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-1</v>
+      </c>
+      <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
       <c r="C116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-1</v>
+      </c>
+      <c r="B117" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
       <c r="C117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-1</v>
+      </c>
+      <c r="B118" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
       <c r="C118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
       <c r="C119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-1</v>
+      </c>
+      <c r="B120" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
       <c r="C120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-1</v>
+      </c>
+      <c r="B121" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
       <c r="C121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>2</v>
       </c>
-      <c r="C122">
-        <v>-1</v>
-      </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
       <c r="C123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-1</v>
+      </c>
+      <c r="B124" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>2</v>
       </c>
-      <c r="C124">
-        <v>-1</v>
-      </c>
       <c r="D124">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>3</v>
       </c>
-      <c r="C125">
-        <v>-1</v>
-      </c>
       <c r="D125">
+        <v>-1</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-1</v>
+      </c>
+      <c r="B126" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>2</v>
       </c>
-      <c r="C126">
-        <v>-1</v>
-      </c>
       <c r="D126">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-1</v>
+      </c>
+      <c r="B127" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
       <c r="C127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-1</v>
+      </c>
+      <c r="B128" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
       <c r="C128">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-1</v>
+      </c>
+      <c r="B129" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
       <c r="C129">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E129">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>3</v>
       </c>
-      <c r="C130">
-        <v>-1</v>
-      </c>
       <c r="D130">
+        <v>-1</v>
+      </c>
+      <c r="E130">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>2</v>
       </c>
-      <c r="C131">
-        <v>-1</v>
-      </c>
       <c r="D131">
-        <f t="shared" ref="D131:D143" si="2">B131+C131</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+        <f t="shared" ref="E131:E143" si="2">C131+D131</f>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-1</v>
+      </c>
+      <c r="B132" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>2</v>
       </c>
-      <c r="C132">
-        <v>-1</v>
-      </c>
       <c r="D132">
+        <v>-1</v>
+      </c>
+      <c r="E132">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
       <c r="C133">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D133">
+        <v>-2</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="E133">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="F133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>2</v>
       </c>
-      <c r="C134">
-        <v>-1</v>
-      </c>
       <c r="D134">
+        <v>-1</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-1</v>
+      </c>
+      <c r="B135" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>2</v>
       </c>
-      <c r="C135">
-        <v>-2</v>
-      </c>
       <c r="D135">
+        <v>-2</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-1</v>
+      </c>
+      <c r="B136" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="C136">
-        <v>-1</v>
-      </c>
       <c r="D136">
+        <v>-1</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-1</v>
+      </c>
+      <c r="B137" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>3</v>
       </c>
-      <c r="C137">
-        <v>-1</v>
-      </c>
       <c r="D137">
+        <v>-1</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-1</v>
+      </c>
+      <c r="B138" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
       <c r="C138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D138">
+        <v>-1</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-1</v>
+      </c>
+      <c r="B139" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
       <c r="C139">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D139">
+        <v>-2</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="E139">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="F139">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>3</v>
       </c>
-      <c r="C140">
-        <v>-1</v>
-      </c>
       <c r="D140">
+        <v>-1</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>-1</v>
+      </c>
+      <c r="B141" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
       <c r="C141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D141">
+        <v>-1</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
       <c r="C142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D142">
+        <v>-1</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>-1</v>
+      </c>
+      <c r="B143" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
       <c r="C143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D143">
+        <v>-1</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>0</v>
       </c>
     </row>
